--- a/data/param_tuning/Dataset6/kmer_size_test.xlsx
+++ b/data/param_tuning/Dataset6/kmer_size_test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,64 +456,64 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[1, 4]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[1, 4]</t>
+          <t>[3, 4, 5]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.803</t>
+          <t>0.8052</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.5349</t>
+          <t>0.5348</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.5569</t>
+          <t>0.5048</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.4968</t>
+          <t>0.4844</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[1, 3, 4]</t>
+          <t>[1, 2, 4]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[1, 2, 3]</t>
+          <t>[1, 2]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.8148</t>
+          <t>0.8185</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.5791</t>
+          <t>0.5653</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.5737</t>
+          <t>0.5603</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.5573</t>
+          <t>0.542</t>
         </is>
       </c>
     </row>
@@ -525,859 +525,859 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[2, 5]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.7956</t>
+          <t>0.8015</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.5496</t>
+          <t>0.5407</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.5176</t>
+          <t>0.5002</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.5134</t>
+          <t>0.5025</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[1, 5]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[3, 4, 5]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.8059</t>
+          <t>0.7948</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.6009</t>
+          <t>0.5459</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.5562</t>
+          <t>0.5065</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.541</t>
+          <t>0.5133</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[1, 3, 4]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[2, 3, 4]</t>
+          <t>[2, 3, 5]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.7926</t>
+          <t>0.7756</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.5534</t>
+          <t>0.5146</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.5548</t>
+          <t>0.4656</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.5326</t>
+          <t>0.4606</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[2, 3, 5]</t>
+          <t>[1, 3, 5]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[3, 4, 5]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.8266</t>
+          <t>0.8037</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.6095</t>
+          <t>0.5846</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.5509</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.5389</t>
+          <t>0.5399</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[1, 5]</t>
+          <t>[2, 3, 5]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[3, 5]</t>
+          <t>[2, 3, 4]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.8074</t>
+          <t>0.8103</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.6347</t>
+          <t>0.5778</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.5901</t>
+          <t>0.5902</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.5904</t>
+          <t>0.5578</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[1, 2, 3]</t>
+          <t>[1, 3, 5]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[3, 4, 5]</t>
+          <t>[3, 5]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.7764</t>
+          <t>0.7904</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.5249</t>
+          <t>0.6086</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.5015</t>
+          <t>0.5798</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.493</t>
+          <t>0.5649</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[1, 2, 4]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[1, 2, 4]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.8133</t>
+          <t>0.8081</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.5889</t>
+          <t>0.5261</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.569</t>
+          <t>0.4809</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.5447</t>
+          <t>0.4774</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[2, 3]</t>
+          <t>[1, 5]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[1, 5]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.7882</t>
+          <t>0.8037</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.6179</t>
+          <t>0.5627</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.5079</t>
+          <t>0.5407</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.5259</t>
+          <t>0.5282</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[3, 4, 5]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[2, 3, 5]</t>
+          <t>[1, 3, 4]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.7838</t>
+          <t>0.7934</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.5671</t>
+          <t>0.5097</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.5382</t>
+          <t>0.4854</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.5418</t>
+          <t>0.4789</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[1, 4]</t>
+          <t>[3, 5]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[2, 5]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.7764</t>
+          <t>0.7934</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.5217</t>
+          <t>0.597</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.5426</t>
+          <t>0.5856</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.5059</t>
+          <t>0.5581</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[1, 2, 4]</t>
+          <t>[2, 3]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[2, 3, 5]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.8199</t>
+          <t>0.7845</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.5948</t>
+          <t>0.5426</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.5482</t>
+          <t>0.5437</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.552</t>
+          <t>0.5278</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[2, 5]</t>
+          <t>[1, 3, 5]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[1, 3, 4]</t>
+          <t>[1, 2, 3]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.8103</t>
+          <t>0.8118</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.6356</t>
+          <t>0.5936</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.5261</t>
+          <t>0.5336</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.5326</t>
+          <t>0.5328</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[1, 5]</t>
+          <t>[1, 2, 4]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[2, 5]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.7934</t>
+          <t>0.786</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.5499</t>
+          <t>0.5881</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.5575</t>
+          <t>0.556</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.5387</t>
+          <t>0.5463</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[1, 3, 4]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[1, 2, 4]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.772</t>
+          <t>0.8081</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.4852</t>
+          <t>0.5673</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.4657</t>
+          <t>0.5202</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.4515</t>
+          <t>0.516</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[1, 2]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[1, 3, 5]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.8052</t>
+          <t>0.7506</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.4867</t>
+          <t>0.4748</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.4996</t>
+          <t>0.4396</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.4762</t>
+          <t>0.4267</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[2, 3]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[2, 4]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.7956</t>
+          <t>0.7705</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.524</t>
+          <t>0.4762</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.4924</t>
+          <t>0.4824</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.4792</t>
+          <t>0.4593</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[2, 3, 5]</t>
+          <t>[3, 5]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[2, 3]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.797</t>
+          <t>0.7919</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.5944</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.509</t>
+          <t>0.5143</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.5065</t>
+          <t>0.493</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[1, 2, 3]</t>
+          <t>[1, 2]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.814</t>
+          <t>0.8007</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.5545</t>
+          <t>0.5447</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.5527</t>
+          <t>0.5601</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.5269</t>
+          <t>0.5177</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[1, 3, 4]</t>
+          <t>[1, 4]</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[1, 3, 5]</t>
+          <t>[1, 2, 5]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.7756</t>
+          <t>0.7934</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.5028</t>
+          <t>0.5495</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.4944</t>
+          <t>0.5373</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.4794</t>
+          <t>0.5179</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[1, 2, 4]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[2, 3, 5]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.7889</t>
+          <t>0.8162</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.5264</t>
+          <t>0.5327</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.5026</t>
+          <t>0.5371</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.4898</t>
+          <t>0.512</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[1, 3]</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[1, 2, 3]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.7978</t>
+          <t>0.7985</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.5812</t>
+          <t>0.5132</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.5218</t>
+          <t>0.5175</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.5186</t>
+          <t>0.4969</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[1, 2, 4]</t>
+          <t>[1, 5]</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[3, 4, 5]</t>
+          <t>[2, 4]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.8015</t>
+          <t>0.8199</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.6017</t>
+          <t>0.6234</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.5444</t>
+          <t>0.5408</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.5464</t>
+          <t>0.5544</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[1, 4]</t>
+          <t>[1, 5]</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[3, 4, 5]</t>
+          <t>[2, 3]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.8125</t>
+          <t>0.7963</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.6445</t>
+          <t>0.5307</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.5753</t>
+          <t>0.4761</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.5752</t>
+          <t>0.4715</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[1, 5]</t>
+          <t>[2, 3, 4]</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[1, 2]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.8362</t>
+          <t>0.7956</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.5901</t>
+          <t>0.5979</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.5318</t>
+          <t>0.5868</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.5354</t>
+          <t>0.5677</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[1, 2, 3]</t>
+          <t>[2, 3, 4]</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[1, 2, 5]</t>
+          <t>[2, 3, 4]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.772</t>
+          <t>0.817</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.5731</t>
+          <t>0.5889</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.5209</t>
+          <t>0.5498</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.5166</t>
+          <t>0.5442</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[1, 4]</t>
+          <t>[1, 3, 4]</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[2, 5]</t>
+          <t>[1, 3, 5]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.7956</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.6415</t>
+          <t>0.5582</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.5764</t>
+          <t>0.5213</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.5825</t>
+          <t>0.5146</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[1, 2]</t>
+          <t>[1, 3, 5]</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[2, 5]</t>
+          <t>[2, 3, 5]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.7506</t>
+          <t>0.8066</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.5002</t>
+          <t>0.5771</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.4735</t>
+          <t>0.5316</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.4614</t>
+          <t>0.5412</t>
         </is>
       </c>
     </row>
@@ -1389,162 +1389,162 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.8133</t>
+          <t>0.8007</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.5318</t>
+          <t>0.5573</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.4991</t>
+          <t>0.509</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.4987</t>
+          <t>0.5145</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[1, 3, 4]</t>
+          <t>[2, 3, 5]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.8133</t>
+          <t>0.7852</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.6125</t>
+          <t>0.5291</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.5554</t>
+          <t>0.5193</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.5613</t>
+          <t>0.4968</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[1, 3, 5]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[3, 4, 5]</t>
+          <t>[1, 2, 4]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.7941</t>
+          <t>0.8103</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>0.5776</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>0.5059</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0.4867</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.4759</t>
+          <t>0.5129</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>[2, 3]</t>
+          <t>[1, 3]</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[1, 2]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.7786</t>
+          <t>0.7919</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.4868</t>
+          <t>0.597</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.4631</t>
+          <t>0.5434</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.4524</t>
+          <t>0.5348</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[1, 2, 5]</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[1, 2, 3]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.7993</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.4962</t>
+          <t>0.5207</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.4836</t>
+          <t>0.482</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.4737</t>
+          <t>0.4826</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[2, 3, 4]</t>
+          <t>[1, 2]</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1554,502 +1554,182 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.8118</t>
+          <t>0.7978</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.5751</t>
+          <t>0.5379</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.5636</t>
+          <t>0.4831</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.475</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[3, 4, 5]</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[2, 3, 4]</t>
+          <t>[3, 5]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.7963</t>
+          <t>0.8089</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.5909</t>
+          <t>0.5693</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.4876</t>
+          <t>0.5195</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.5016</t>
+          <t>0.5226</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>[1, 2, 3]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[1, 5]</t>
+          <t>[1, 2, 5]</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.7675</t>
+          <t>0.7904</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.5325</t>
+          <t>0.5473</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.4896</t>
+          <t>0.5556</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.4855</t>
+          <t>0.5235</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[2, 3]</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.7764</t>
+          <t>0.8044</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.5172</t>
+          <t>0.5726</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.4717</t>
+          <t>0.5723</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.4715</t>
+          <t>0.5441</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[1, 5]</t>
+          <t>[1, 3, 4]</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[1, 3, 5]</t>
+          <t>[1, 2, 3]</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.814</t>
+          <t>0.8074</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.6135</t>
+          <t>0.5822</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.562</t>
+          <t>0.5317</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.5624</t>
+          <t>0.5229</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>[5]</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>[1, 2, 5]</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>[1, 4]</t>
-        </is>
-      </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.7985</t>
+          <t>0.8103</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.5247</t>
+          <t>0.5888</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.5166</t>
+          <t>0.5457</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.5037</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>[1, 2, 4]</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>[2, 3, 4]</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>0.8037</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.5446</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0.5481</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0.5113</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>[2]</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>[1, 2, 3]</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>0.7786</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.555</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0.4975</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0.4972</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>[1, 2]</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>[3, 4]</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>0.7882</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.5054</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0.4482</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0.4481</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>[1, 5]</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>0.8081</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.5657</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0.5045</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0.5059</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>[4]</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>[3, 5]</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>0.7852</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.5901</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0.5303</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0.5305</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>[1, 4]</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>[1, 3]</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>0.803</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.5832</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0.5679</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0.5533</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>[2, 3]</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>[1, 3, 5]</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>0.7734</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.545</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>0.5288</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0.511</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>[2]</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>[2, 3]</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>0.7742</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.5159</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>0.4705</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0.4637</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>[1, 2, 4]</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>[3, 4]</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>0.8015</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.5455</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0.5157</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>0.5019</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>[3, 5]</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>[5]</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>0.8229</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.6531</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0.5529</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0.5588</t>
+          <t>0.5493</t>
         </is>
       </c>
     </row>
